--- a/test-CDSS/staticData/WatershedConnectivity/Watershed_Connectivity_v4.xlsx
+++ b/test-CDSS/staticData/WatershedConnectivity/Watershed_Connectivity_v4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\owf-proj\OWF-proj-CO-CWCB-2016-SNODAS\ProcessedData\6_CreateTimeSeriesProducts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SNODAS\SNODAS_Tools\staticData\WatershedConnectivity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21828" windowHeight="8592" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="8595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="933">
   <si>
     <t>LOCAL_NAME</t>
   </si>
@@ -2465,31 +2465,15 @@
     <t>Arkansas River at Nepesta, CO UP ELEV</t>
   </si>
   <si>
-    <t>FOUNTAIN CRK NR COLO SPGS
-UP ELEV</t>
-  </si>
-  <si>
     <t>St Charles River at Vineland, CO UP ELEV</t>
   </si>
   <si>
-    <t>Fountain Creek at Pinon, CO
-UP ELEV</t>
-  </si>
-  <si>
     <t>Fountain Creek nr Fountain, CO UP ELEV</t>
   </si>
   <si>
-    <t>Pueblo Reservoir near Pueblo
-UP ELEV</t>
-  </si>
-  <si>
     <t>CUCHARAS RVR LA VETA</t>
   </si>
   <si>
-    <t xml:space="preserve">Walnut Creek
-</t>
-  </si>
-  <si>
     <t>Purgatoire River at Trinidad, CO</t>
   </si>
   <si>
@@ -2517,10 +2501,6 @@
     <t>Arkansas River at Salida, CO</t>
   </si>
   <si>
-    <t xml:space="preserve">FOUNTAIN CRK NR COLO SPGS
-</t>
-  </si>
-  <si>
     <t>Cimarron River (OK) at Kenton</t>
   </si>
   <si>
@@ -2558,10 +2538,6 @@
   </si>
   <si>
     <t>Arkansas River at Syracuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkansas River at Kendall
-</t>
   </si>
   <si>
     <t>Arkansas River at Leadville, CO</t>
@@ -2848,6 +2824,21 @@
   </si>
   <si>
     <t>Copy to Watershed_Connectivity_v4.xlsx.  Add the DOWNSTREAM_LOCAL_ID column to make it easier to generate the list of upstream basins.  Use this version as input to TSTool to generate total basin volumes.  Added 3286, 3297, 3278 LOCAL_ID to the QC worksheet.</t>
+  </si>
+  <si>
+    <t>FOUNTAIN CRK NR COLO SPGS UP ELEV</t>
+  </si>
+  <si>
+    <t>Fountain Creek at Pinon, CO UP ELEV</t>
+  </si>
+  <si>
+    <t>Pueblo Reservoir near Pueblo UP ELEV</t>
+  </si>
+  <si>
+    <t>Walnut Creek</t>
+  </si>
+  <si>
+    <t>Arkansas River at Kendall</t>
   </si>
 </sst>
 </file>
@@ -3750,55 +3741,55 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
-    <col min="3" max="3" width="94.44140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="94.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>42793</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>42812</v>
       </c>
       <c r="B3" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>42826</v>
       </c>
       <c r="B4" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -3814,14 +3805,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="109.5546875" customWidth="1"/>
+    <col min="1" max="1" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="255" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -3837,26 +3828,26 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="5" customWidth="1"/>
-    <col min="10" max="14" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="5" customWidth="1"/>
+    <col min="10" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -3864,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -3903,7 +3894,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -3936,7 +3927,7 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -3967,7 +3958,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -3998,7 +3989,7 @@
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -4029,7 +4020,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -4062,7 +4053,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -4093,7 +4084,7 @@
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -4124,7 +4115,7 @@
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -4155,7 +4146,7 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
@@ -4186,12 +4177,12 @@
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>812</v>
+        <v>928</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>90</v>
@@ -4200,7 +4191,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>812</v>
+        <v>928</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>807</v>
@@ -4217,7 +4208,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -4248,12 +4239,12 @@
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>106</v>
@@ -4262,7 +4253,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>807</v>
@@ -4279,12 +4270,12 @@
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>814</v>
+        <v>929</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>79</v>
@@ -4293,7 +4284,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>814</v>
+        <v>929</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>807</v>
@@ -4310,12 +4301,12 @@
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>101</v>
@@ -4324,7 +4315,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>807</v>
@@ -4341,12 +4332,12 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>816</v>
+        <v>930</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>81</v>
@@ -4355,7 +4346,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>816</v>
+        <v>930</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>807</v>
@@ -4372,7 +4363,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
@@ -4403,7 +4394,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
@@ -4436,12 +4427,12 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>12</v>
@@ -4450,7 +4441,7 @@
         <v>42</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>807</v>
@@ -4467,7 +4458,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>44</v>
       </c>
@@ -4498,7 +4489,7 @@
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>46</v>
       </c>
@@ -4529,7 +4520,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>48</v>
       </c>
@@ -4560,7 +4551,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
@@ -4591,7 +4582,7 @@
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
@@ -4622,7 +4613,7 @@
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>55</v>
       </c>
@@ -4653,19 +4644,19 @@
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>818</v>
+        <v>931</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>818</v>
+        <v>931</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>807</v>
@@ -4682,7 +4673,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
@@ -4713,7 +4704,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>59</v>
       </c>
@@ -4744,7 +4735,7 @@
       <c r="N28" s="22"/>
       <c r="O28" s="22"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>61</v>
       </c>
@@ -4775,7 +4766,7 @@
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>63</v>
       </c>
@@ -4806,7 +4797,7 @@
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -4837,12 +4828,12 @@
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>28</v>
@@ -4851,7 +4842,7 @@
         <v>66</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>807</v>
@@ -4868,12 +4859,12 @@
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>23</v>
@@ -4882,7 +4873,7 @@
         <v>68</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>807</v>
@@ -4899,12 +4890,12 @@
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>100</v>
@@ -4913,7 +4904,7 @@
         <v>69</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>807</v>
@@ -4932,7 +4923,7 @@
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>71</v>
       </c>
@@ -4963,7 +4954,7 @@
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>72</v>
       </c>
@@ -4994,7 +4985,7 @@
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>74</v>
       </c>
@@ -5025,7 +5016,7 @@
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>77</v>
       </c>
@@ -5056,12 +5047,12 @@
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>36</v>
@@ -5070,7 +5061,7 @@
         <v>78</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>807</v>
@@ -5089,12 +5080,12 @@
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>84</v>
@@ -5103,7 +5094,7 @@
         <v>80</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>807</v>
@@ -5122,12 +5113,12 @@
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>83</v>
@@ -5136,7 +5127,7 @@
         <v>82</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>807</v>
@@ -5153,12 +5144,12 @@
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>112</v>
@@ -5167,7 +5158,7 @@
         <v>83</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>807</v>
@@ -5184,12 +5175,12 @@
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>112</v>
@@ -5198,7 +5189,7 @@
         <v>84</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>807</v>
@@ -5215,7 +5206,7 @@
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>85</v>
       </c>
@@ -5246,12 +5237,12 @@
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>89</v>
@@ -5260,7 +5251,7 @@
         <v>87</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>807</v>
@@ -5277,7 +5268,7 @@
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>88</v>
       </c>
@@ -5312,12 +5303,12 @@
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>69</v>
@@ -5326,7 +5317,7 @@
         <v>89</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>807</v>
@@ -5343,12 +5334,12 @@
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
     </row>
-    <row r="48" spans="1:15" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>828</v>
+        <v>926</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>68</v>
@@ -5357,7 +5348,7 @@
         <v>91</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>807</v>
@@ -5374,12 +5365,12 @@
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>119</v>
@@ -5388,7 +5379,7 @@
         <v>93</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>807</v>
@@ -5405,7 +5396,7 @@
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>95</v>
       </c>
@@ -5436,7 +5427,7 @@
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>98</v>
       </c>
@@ -5467,12 +5458,12 @@
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>65</v>
@@ -5481,7 +5472,7 @@
         <v>99</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>807</v>
@@ -5498,12 +5489,12 @@
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>78</v>
@@ -5512,7 +5503,7 @@
         <v>100</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>807</v>
@@ -5531,12 +5522,12 @@
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>79</v>
@@ -5545,7 +5536,7 @@
         <v>102</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>807</v>
@@ -5562,7 +5553,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>103</v>
       </c>
@@ -5595,12 +5586,12 @@
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>125</v>
@@ -5609,7 +5600,7 @@
         <v>105</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>807</v>
@@ -5626,12 +5617,12 @@
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>112</v>
@@ -5640,7 +5631,7 @@
         <v>107</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>807</v>
@@ -5657,12 +5648,12 @@
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>41</v>
@@ -5671,7 +5662,7 @@
         <v>109</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>807</v>
@@ -5688,12 +5679,12 @@
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>5</v>
@@ -5702,7 +5693,7 @@
         <v>111</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="F59" s="20" t="s">
         <v>807</v>
@@ -5723,12 +5714,12 @@
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>112</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>110</v>
@@ -5737,7 +5728,7 @@
         <v>112</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>807</v>
@@ -5758,7 +5749,7 @@
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>113</v>
       </c>
@@ -5789,7 +5780,7 @@
       <c r="N61" s="22"/>
       <c r="O61" s="22"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>116</v>
       </c>
@@ -5820,7 +5811,7 @@
       <c r="N62" s="22"/>
       <c r="O62" s="22"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>119</v>
       </c>
@@ -5851,12 +5842,12 @@
       <c r="N63" s="22"/>
       <c r="O63" s="22"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>127</v>
@@ -5865,7 +5856,7 @@
         <v>120</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>807</v>
@@ -5886,7 +5877,7 @@
       <c r="N64" s="22"/>
       <c r="O64" s="22"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>121</v>
       </c>
@@ -5917,7 +5908,7 @@
       <c r="N65" s="22"/>
       <c r="O65" s="22"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>123</v>
       </c>
@@ -5925,7 +5916,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>123</v>
@@ -5948,18 +5939,18 @@
       <c r="N66" s="22"/>
       <c r="O66" s="22"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>4</v>
@@ -5979,7 +5970,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="22"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>125</v>
       </c>
@@ -6012,12 +6003,12 @@
       <c r="N68" s="22"/>
       <c r="O68" s="22"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>120</v>
@@ -6026,7 +6017,7 @@
         <v>126</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>807</v>
@@ -6043,16 +6034,16 @@
       <c r="N69" s="22"/>
       <c r="O69" s="22"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="9" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>4</v>
@@ -6064,7 +6055,7 @@
         <v>4712.22</v>
       </c>
       <c r="J70" s="23" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
@@ -6072,12 +6063,12 @@
       <c r="N70" s="22"/>
       <c r="O70" s="22"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>127</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>128</v>
@@ -6086,7 +6077,7 @@
         <v>127</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>807</v>
@@ -6103,12 +6094,12 @@
       <c r="N71" s="22"/>
       <c r="O71" s="22"/>
     </row>
-    <row r="72" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>128</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>842</v>
+        <v>932</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>123</v>
@@ -6117,7 +6108,7 @@
         <v>128</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>842</v>
+        <v>932</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>807</v>
@@ -6134,7 +6125,7 @@
       <c r="N72" s="22"/>
       <c r="O72" s="22"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>129</v>
       </c>
@@ -6163,7 +6154,7 @@
       <c r="N73" s="22"/>
       <c r="O73" s="22"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>131</v>
       </c>
@@ -6194,12 +6185,12 @@
       <c r="N74" s="22"/>
       <c r="O74" s="22"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>135</v>
@@ -6208,7 +6199,7 @@
         <v>132</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>807</v>
@@ -6225,7 +6216,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="22"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>134</v>
       </c>
@@ -6256,7 +6247,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="22"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>135</v>
       </c>
@@ -6291,7 +6282,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="22"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>137</v>
       </c>
@@ -6322,12 +6313,12 @@
       <c r="N78" s="22"/>
       <c r="O78" s="22"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>40</v>
@@ -6336,7 +6327,7 @@
         <v>138</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>807</v>
@@ -6355,7 +6346,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="22"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>140</v>
       </c>
@@ -6386,7 +6377,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="22"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>145</v>
       </c>
@@ -6400,7 +6391,7 @@
         <v>145</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>143</v>
@@ -6417,7 +6408,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="22"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>147</v>
       </c>
@@ -6431,7 +6422,7 @@
         <v>147</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>143</v>
@@ -6448,7 +6439,7 @@
       <c r="N82" s="22"/>
       <c r="O82" s="22"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>149</v>
       </c>
@@ -6483,7 +6474,7 @@
       <c r="N83" s="22"/>
       <c r="O83" s="22"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>153</v>
       </c>
@@ -6497,7 +6488,7 @@
         <v>153</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>143</v>
@@ -6514,7 +6505,7 @@
       <c r="N84" s="22"/>
       <c r="O84" s="22"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>155</v>
       </c>
@@ -6545,7 +6536,7 @@
       <c r="N85" s="22"/>
       <c r="O85" s="22"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>159</v>
       </c>
@@ -6559,7 +6550,7 @@
         <v>159</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>143</v>
@@ -6576,7 +6567,7 @@
       <c r="N86" s="22"/>
       <c r="O86" s="22"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>161</v>
       </c>
@@ -6590,7 +6581,7 @@
         <v>161</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>143</v>
@@ -6607,7 +6598,7 @@
       <c r="N87" s="22"/>
       <c r="O87" s="22"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>163</v>
       </c>
@@ -6638,7 +6629,7 @@
       <c r="N88" s="22"/>
       <c r="O88" s="22"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>167</v>
       </c>
@@ -6669,7 +6660,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="22"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>170</v>
       </c>
@@ -6700,7 +6691,7 @@
       <c r="N90" s="22"/>
       <c r="O90" s="22"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>173</v>
       </c>
@@ -6731,7 +6722,7 @@
       <c r="N91" s="22"/>
       <c r="O91" s="22"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>176</v>
       </c>
@@ -6762,7 +6753,7 @@
       <c r="N92" s="22"/>
       <c r="O92" s="22"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>179</v>
       </c>
@@ -6793,7 +6784,7 @@
       <c r="N93" s="22"/>
       <c r="O93" s="22"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>182</v>
       </c>
@@ -6824,7 +6815,7 @@
       <c r="N94" s="22"/>
       <c r="O94" s="22"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>185</v>
       </c>
@@ -6855,7 +6846,7 @@
       <c r="N95" s="22"/>
       <c r="O95" s="22"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>188</v>
       </c>
@@ -6886,7 +6877,7 @@
       <c r="N96" s="22"/>
       <c r="O96" s="22"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>191</v>
       </c>
@@ -6921,7 +6912,7 @@
       <c r="N97" s="22"/>
       <c r="O97" s="22"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>194</v>
       </c>
@@ -6952,7 +6943,7 @@
       <c r="N98" s="22"/>
       <c r="O98" s="22"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>197</v>
       </c>
@@ -6983,7 +6974,7 @@
       <c r="N99" s="22"/>
       <c r="O99" s="22"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>200</v>
       </c>
@@ -7014,7 +7005,7 @@
       <c r="N100" s="22"/>
       <c r="O100" s="22"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>203</v>
       </c>
@@ -7045,7 +7036,7 @@
       <c r="N101" s="22"/>
       <c r="O101" s="22"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>206</v>
       </c>
@@ -7076,7 +7067,7 @@
       <c r="N102" s="22"/>
       <c r="O102" s="22"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>209</v>
       </c>
@@ -7107,7 +7098,7 @@
       <c r="N103" s="22"/>
       <c r="O103" s="22"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>212</v>
       </c>
@@ -7138,7 +7129,7 @@
       <c r="N104" s="22"/>
       <c r="O104" s="22"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>215</v>
       </c>
@@ -7169,7 +7160,7 @@
       <c r="N105" s="22"/>
       <c r="O105" s="22"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>218</v>
       </c>
@@ -7200,7 +7191,7 @@
       <c r="N106" s="22"/>
       <c r="O106" s="22"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>221</v>
       </c>
@@ -7231,7 +7222,7 @@
       <c r="N107" s="22"/>
       <c r="O107" s="22"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>224</v>
       </c>
@@ -7262,7 +7253,7 @@
       <c r="N108" s="22"/>
       <c r="O108" s="22"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>227</v>
       </c>
@@ -7293,7 +7284,7 @@
       <c r="N109" s="22"/>
       <c r="O109" s="22"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>230</v>
       </c>
@@ -7328,7 +7319,7 @@
       <c r="N110" s="22"/>
       <c r="O110" s="22"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>233</v>
       </c>
@@ -7359,7 +7350,7 @@
       <c r="N111" s="22"/>
       <c r="O111" s="22"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>236</v>
       </c>
@@ -7390,7 +7381,7 @@
       <c r="N112" s="22"/>
       <c r="O112" s="22"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>239</v>
       </c>
@@ -7421,7 +7412,7 @@
       <c r="N113" s="22"/>
       <c r="O113" s="22"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>242</v>
       </c>
@@ -7452,7 +7443,7 @@
       <c r="N114" s="22"/>
       <c r="O114" s="22"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>245</v>
       </c>
@@ -7485,7 +7476,7 @@
       <c r="N115" s="22"/>
       <c r="O115" s="22"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>248</v>
       </c>
@@ -7516,7 +7507,7 @@
       <c r="N116" s="22"/>
       <c r="O116" s="22"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>251</v>
       </c>
@@ -7547,7 +7538,7 @@
       <c r="N117" s="22"/>
       <c r="O117" s="22"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>254</v>
       </c>
@@ -7578,7 +7569,7 @@
       <c r="N118" s="22"/>
       <c r="O118" s="22"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>257</v>
       </c>
@@ -7609,7 +7600,7 @@
       <c r="N119" s="22"/>
       <c r="O119" s="22"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>260</v>
       </c>
@@ -7640,7 +7631,7 @@
       <c r="N120" s="22"/>
       <c r="O120" s="22"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>263</v>
       </c>
@@ -7671,7 +7662,7 @@
       <c r="N121" s="22"/>
       <c r="O121" s="22"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>266</v>
       </c>
@@ -7702,7 +7693,7 @@
       <c r="N122" s="22"/>
       <c r="O122" s="22"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>269</v>
       </c>
@@ -7735,7 +7726,7 @@
       <c r="N123" s="22"/>
       <c r="O123" s="22"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>272</v>
       </c>
@@ -7766,7 +7757,7 @@
       <c r="N124" s="22"/>
       <c r="O124" s="22"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>275</v>
       </c>
@@ -7797,7 +7788,7 @@
       <c r="N125" s="22"/>
       <c r="O125" s="22"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>278</v>
       </c>
@@ -7828,7 +7819,7 @@
       <c r="N126" s="22"/>
       <c r="O126" s="22"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>281</v>
       </c>
@@ -7859,7 +7850,7 @@
       <c r="N127" s="22"/>
       <c r="O127" s="22"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>284</v>
       </c>
@@ -7892,7 +7883,7 @@
       <c r="N128" s="22"/>
       <c r="O128" s="22"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>287</v>
       </c>
@@ -7927,7 +7918,7 @@
       <c r="N129" s="9"/>
       <c r="O129" s="22"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>290</v>
       </c>
@@ -7960,7 +7951,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="22"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>293</v>
       </c>
@@ -7991,7 +7982,7 @@
       <c r="N131" s="22"/>
       <c r="O131" s="22"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>296</v>
       </c>
@@ -8022,7 +8013,7 @@
       <c r="N132" s="22"/>
       <c r="O132" s="22"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>299</v>
       </c>
@@ -8055,7 +8046,7 @@
       <c r="N133" s="22"/>
       <c r="O133" s="22"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>302</v>
       </c>
@@ -8086,7 +8077,7 @@
       <c r="N134" s="22"/>
       <c r="O134" s="22"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>305</v>
       </c>
@@ -8117,7 +8108,7 @@
       <c r="N135" s="22"/>
       <c r="O135" s="22"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>308</v>
       </c>
@@ -8150,7 +8141,7 @@
       <c r="N136" s="22"/>
       <c r="O136" s="22"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>311</v>
       </c>
@@ -8181,7 +8172,7 @@
       <c r="N137" s="22"/>
       <c r="O137" s="22"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>314</v>
       </c>
@@ -8210,7 +8201,7 @@
       <c r="N138" s="22"/>
       <c r="O138" s="22"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>317</v>
       </c>
@@ -8239,7 +8230,7 @@
       <c r="N139" s="22"/>
       <c r="O139" s="22"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>320</v>
       </c>
@@ -8270,7 +8261,7 @@
       <c r="N140" s="22"/>
       <c r="O140" s="22"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>323</v>
       </c>
@@ -8303,7 +8294,7 @@
       <c r="N141" s="22"/>
       <c r="O141" s="22"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>326</v>
       </c>
@@ -8334,7 +8325,7 @@
       <c r="N142" s="22"/>
       <c r="O142" s="22"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>329</v>
       </c>
@@ -8367,7 +8358,7 @@
       <c r="N143" s="22"/>
       <c r="O143" s="22"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>332</v>
       </c>
@@ -8398,7 +8389,7 @@
       <c r="N144" s="22"/>
       <c r="O144" s="22"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>335</v>
       </c>
@@ -8433,7 +8424,7 @@
       <c r="N145" s="22"/>
       <c r="O145" s="22"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>338</v>
       </c>
@@ -8466,7 +8457,7 @@
       <c r="N146" s="22"/>
       <c r="O146" s="22"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>341</v>
       </c>
@@ -8495,7 +8486,7 @@
       <c r="N147" s="22"/>
       <c r="O147" s="22"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>344</v>
       </c>
@@ -8526,7 +8517,7 @@
       <c r="N148" s="22"/>
       <c r="O148" s="22"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>347</v>
       </c>
@@ -8557,7 +8548,7 @@
       <c r="N149" s="22"/>
       <c r="O149" s="22"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>350</v>
       </c>
@@ -8592,7 +8583,7 @@
       <c r="N150" s="22"/>
       <c r="O150" s="22"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>353</v>
       </c>
@@ -8623,7 +8614,7 @@
       <c r="N151" s="22"/>
       <c r="O151" s="22"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>356</v>
       </c>
@@ -8654,7 +8645,7 @@
       <c r="N152" s="22"/>
       <c r="O152" s="22"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>359</v>
       </c>
@@ -8685,7 +8676,7 @@
       <c r="N153" s="22"/>
       <c r="O153" s="22"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>362</v>
       </c>
@@ -8716,7 +8707,7 @@
       <c r="N154" s="22"/>
       <c r="O154" s="22"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>365</v>
       </c>
@@ -8747,7 +8738,7 @@
       <c r="N155" s="22"/>
       <c r="O155" s="22"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>368</v>
       </c>
@@ -8778,7 +8769,7 @@
       <c r="N156" s="22"/>
       <c r="O156" s="22"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>371</v>
       </c>
@@ -8811,7 +8802,7 @@
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>374</v>
       </c>
@@ -8842,7 +8833,7 @@
       <c r="N158" s="22"/>
       <c r="O158" s="22"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>377</v>
       </c>
@@ -8880,7 +8871,7 @@
       <c r="N159" s="22"/>
       <c r="O159" s="22"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>380</v>
       </c>
@@ -8911,7 +8902,7 @@
       <c r="N160" s="22"/>
       <c r="O160" s="22"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>383</v>
       </c>
@@ -8948,7 +8939,7 @@
       <c r="N161" s="22"/>
       <c r="O161" s="22"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>386</v>
       </c>
@@ -8979,7 +8970,7 @@
       <c r="N162" s="22"/>
       <c r="O162" s="22"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>389</v>
       </c>
@@ -9016,7 +9007,7 @@
       <c r="N163" s="22"/>
       <c r="O163" s="22"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>392</v>
       </c>
@@ -9047,7 +9038,7 @@
       <c r="N164" s="22"/>
       <c r="O164" s="22"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>395</v>
       </c>
@@ -9078,7 +9069,7 @@
       <c r="N165" s="22"/>
       <c r="O165" s="22"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>398</v>
       </c>
@@ -9111,7 +9102,7 @@
       <c r="N166" s="22"/>
       <c r="O166" s="22"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>401</v>
       </c>
@@ -9142,7 +9133,7 @@
       <c r="N167" s="22"/>
       <c r="O167" s="22"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>404</v>
       </c>
@@ -9173,7 +9164,7 @@
       <c r="N168" s="22"/>
       <c r="O168" s="22"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>407</v>
       </c>
@@ -9204,7 +9195,7 @@
       <c r="N169" s="22"/>
       <c r="O169" s="22"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>410</v>
       </c>
@@ -9235,7 +9226,7 @@
       <c r="N170" s="22"/>
       <c r="O170" s="22"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>413</v>
       </c>
@@ -9270,7 +9261,7 @@
       <c r="N171" s="22"/>
       <c r="O171" s="22"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>416</v>
       </c>
@@ -9301,7 +9292,7 @@
       <c r="N172" s="22"/>
       <c r="O172" s="22"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>419</v>
       </c>
@@ -9332,7 +9323,7 @@
       <c r="N173" s="22"/>
       <c r="O173" s="22"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>422</v>
       </c>
@@ -9363,7 +9354,7 @@
       <c r="N174" s="22"/>
       <c r="O174" s="22"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>425</v>
       </c>
@@ -9400,7 +9391,7 @@
       <c r="N175" s="22"/>
       <c r="O175" s="22"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>428</v>
       </c>
@@ -9437,7 +9428,7 @@
       <c r="N176" s="22"/>
       <c r="O176" s="22"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>431</v>
       </c>
@@ -9468,7 +9459,7 @@
       <c r="N177" s="22"/>
       <c r="O177" s="22"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>434</v>
       </c>
@@ -9499,7 +9490,7 @@
       <c r="N178" s="22"/>
       <c r="O178" s="22"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>437</v>
       </c>
@@ -9530,7 +9521,7 @@
       <c r="N179" s="22"/>
       <c r="O179" s="22"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>440</v>
       </c>
@@ -9559,7 +9550,7 @@
       <c r="N180" s="22"/>
       <c r="O180" s="22"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>443</v>
       </c>
@@ -9590,7 +9581,7 @@
       <c r="N181" s="22"/>
       <c r="O181" s="22"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>446</v>
       </c>
@@ -9619,7 +9610,7 @@
       <c r="N182" s="22"/>
       <c r="O182" s="22"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>449</v>
       </c>
@@ -9650,7 +9641,7 @@
       <c r="N183" s="22"/>
       <c r="O183" s="22"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>452</v>
       </c>
@@ -9681,7 +9672,7 @@
       <c r="N184" s="22"/>
       <c r="O184" s="22"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>455</v>
       </c>
@@ -9712,7 +9703,7 @@
       <c r="N185" s="22"/>
       <c r="O185" s="22"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>458</v>
       </c>
@@ -9743,7 +9734,7 @@
       <c r="N186" s="22"/>
       <c r="O186" s="22"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>461</v>
       </c>
@@ -9774,7 +9765,7 @@
       <c r="N187" s="22"/>
       <c r="O187" s="22"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>464</v>
       </c>
@@ -9805,7 +9796,7 @@
       <c r="N188" s="22"/>
       <c r="O188" s="22"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>467</v>
       </c>
@@ -9836,7 +9827,7 @@
       <c r="N189" s="22"/>
       <c r="O189" s="22"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>470</v>
       </c>
@@ -9867,7 +9858,7 @@
       <c r="N190" s="22"/>
       <c r="O190" s="22"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>473</v>
       </c>
@@ -9898,7 +9889,7 @@
       <c r="N191" s="22"/>
       <c r="O191" s="22"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>476</v>
       </c>
@@ -9912,7 +9903,7 @@
         <v>476</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="F192" s="9" t="s">
         <v>143</v>
@@ -9929,7 +9920,7 @@
       <c r="N192" s="22"/>
       <c r="O192" s="22"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>479</v>
       </c>
@@ -9943,7 +9934,7 @@
         <v>477</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>143</v>
@@ -9962,7 +9953,7 @@
       <c r="N193" s="22"/>
       <c r="O193" s="22"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>481</v>
       </c>
@@ -9976,7 +9967,7 @@
         <v>481</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F194" s="9" t="s">
         <v>143</v>
@@ -9993,7 +9984,7 @@
       <c r="N194" s="22"/>
       <c r="O194" s="22"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>483</v>
       </c>
@@ -10010,7 +10001,7 @@
         <v>482</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I195" s="5">
         <v>544.39</v>
@@ -10024,7 +10015,7 @@
       <c r="N195" s="22"/>
       <c r="O195" s="22"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>485</v>
       </c>
@@ -10039,7 +10030,7 @@
         <v>484</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I196" s="5">
         <v>1866.1</v>
@@ -10053,7 +10044,7 @@
       <c r="N196" s="22"/>
       <c r="O196" s="22"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>487</v>
       </c>
@@ -10070,7 +10061,7 @@
         <v>486</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I197" s="5">
         <v>755.04</v>
@@ -10084,7 +10075,7 @@
       <c r="N197" s="22"/>
       <c r="O197" s="22"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>489</v>
       </c>
@@ -10101,7 +10092,7 @@
         <v>488</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I198" s="5">
         <v>336.53</v>
@@ -10117,7 +10108,7 @@
       <c r="N198" s="22"/>
       <c r="O198" s="22"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>491</v>
       </c>
@@ -10134,7 +10125,7 @@
         <v>490</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I199" s="5">
         <v>253.75</v>
@@ -10150,7 +10141,7 @@
       <c r="N199" s="22"/>
       <c r="O199" s="22"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>494</v>
       </c>
@@ -10167,7 +10158,7 @@
         <v>493</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I200" s="5">
         <v>110.37</v>
@@ -10181,7 +10172,7 @@
       <c r="N200" s="22"/>
       <c r="O200" s="22"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>496</v>
       </c>
@@ -10198,7 +10189,7 @@
         <v>495</v>
       </c>
       <c r="F201" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I201" s="5">
         <v>96.4</v>
@@ -10212,7 +10203,7 @@
       <c r="N201" s="22"/>
       <c r="O201" s="22"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>498</v>
       </c>
@@ -10227,7 +10218,7 @@
         <v>497</v>
       </c>
       <c r="F202" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I202" s="5">
         <v>858.1</v>
@@ -10241,7 +10232,7 @@
       <c r="N202" s="22"/>
       <c r="O202" s="22"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>501</v>
       </c>
@@ -10256,7 +10247,7 @@
         <v>500</v>
       </c>
       <c r="F203" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I203" s="5">
         <v>1565.96</v>
@@ -10272,7 +10263,7 @@
       <c r="N203" s="22"/>
       <c r="O203" s="22"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>504</v>
       </c>
@@ -10289,7 +10280,7 @@
         <v>503</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I204" s="5">
         <v>1684.37</v>
@@ -10303,7 +10294,7 @@
       <c r="N204" s="22"/>
       <c r="O204" s="22"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>506</v>
       </c>
@@ -10320,7 +10311,7 @@
         <v>505</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I205" s="5">
         <v>461.26</v>
@@ -10334,7 +10325,7 @@
       <c r="N205" s="22"/>
       <c r="O205" s="22"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>509</v>
       </c>
@@ -10351,7 +10342,7 @@
         <v>508</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I206" s="5">
         <v>274</v>
@@ -10365,7 +10356,7 @@
       <c r="N206" s="22"/>
       <c r="O206" s="22"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>512</v>
       </c>
@@ -10382,7 +10373,7 @@
         <v>511</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I207" s="5">
         <v>302.27</v>
@@ -10396,7 +10387,7 @@
       <c r="N207" s="22"/>
       <c r="O207" s="22"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>515</v>
       </c>
@@ -10413,7 +10404,7 @@
         <v>514</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I208" s="5">
         <v>417.54</v>
@@ -10427,7 +10418,7 @@
       <c r="N208" s="22"/>
       <c r="O208" s="22"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>518</v>
       </c>
@@ -10444,7 +10435,7 @@
         <v>517</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I209" s="5">
         <v>483.41</v>
@@ -10458,7 +10449,7 @@
       <c r="N209" s="22"/>
       <c r="O209" s="22"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>520</v>
       </c>
@@ -10475,7 +10466,7 @@
         <v>519</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I210" s="5">
         <v>564.04999999999995</v>
@@ -10489,7 +10480,7 @@
       <c r="N210" s="22"/>
       <c r="O210" s="22"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>523</v>
       </c>
@@ -10506,7 +10497,7 @@
         <v>522</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I211" s="5">
         <v>271.29000000000002</v>
@@ -10520,7 +10511,7 @@
       <c r="N211" s="22"/>
       <c r="O211" s="22"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>525</v>
       </c>
@@ -10537,7 +10528,7 @@
         <v>524</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I212" s="5">
         <v>958.28</v>
@@ -10553,7 +10544,7 @@
       <c r="N212" s="22"/>
       <c r="O212" s="22"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>528</v>
       </c>
@@ -10570,7 +10561,7 @@
         <v>527</v>
       </c>
       <c r="F213" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I213" s="5">
         <v>546.79</v>
@@ -10584,7 +10575,7 @@
       <c r="N213" s="22"/>
       <c r="O213" s="22"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>531</v>
       </c>
@@ -10601,7 +10592,7 @@
         <v>530</v>
       </c>
       <c r="F214" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I214" s="5">
         <v>265.17</v>
@@ -10615,7 +10606,7 @@
       <c r="N214" s="22"/>
       <c r="O214" s="22"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>534</v>
       </c>
@@ -10632,7 +10623,7 @@
         <v>533</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I215" s="5">
         <v>877.02</v>
@@ -10650,7 +10641,7 @@
       <c r="N215" s="22"/>
       <c r="O215" s="22"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>537</v>
       </c>
@@ -10667,7 +10658,7 @@
         <v>536</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I216" s="5">
         <v>560.28</v>
@@ -10681,7 +10672,7 @@
       <c r="N216" s="22"/>
       <c r="O216" s="22"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>539</v>
       </c>
@@ -10696,7 +10687,7 @@
         <v>538</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I217" s="5">
         <v>1090.5</v>
@@ -10710,7 +10701,7 @@
       <c r="N217" s="22"/>
       <c r="O217" s="22"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>541</v>
       </c>
@@ -10727,7 +10718,7 @@
         <v>540</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I218" s="5">
         <v>977.78</v>
@@ -10743,7 +10734,7 @@
       <c r="N218" s="22"/>
       <c r="O218" s="22"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>544</v>
       </c>
@@ -10751,7 +10742,7 @@
         <v>543</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>544</v>
@@ -10760,7 +10751,7 @@
         <v>543</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I219" s="5">
         <v>449.96</v>
@@ -10774,22 +10765,22 @@
       <c r="N219" s="22"/>
       <c r="O219" s="22"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C220" s="24"/>
       <c r="D220" s="9" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E220" s="9" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I220" s="5">
         <v>784.63</v>
@@ -10807,7 +10798,7 @@
       <c r="N220" s="22"/>
       <c r="O220" s="22"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>546</v>
       </c>
@@ -10824,7 +10815,7 @@
         <v>545</v>
       </c>
       <c r="F221" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I221" s="5">
         <v>2049.4499999999998</v>
@@ -10838,7 +10829,7 @@
       <c r="N221" s="22"/>
       <c r="O221" s="22"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>548</v>
       </c>
@@ -10853,7 +10844,7 @@
         <v>547</v>
       </c>
       <c r="F222" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I222" s="5">
         <v>1759.86</v>
@@ -10869,7 +10860,7 @@
       <c r="N222" s="22"/>
       <c r="O222" s="22"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>551</v>
       </c>
@@ -10877,7 +10868,7 @@
         <v>550</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>552</v>
@@ -10886,7 +10877,7 @@
         <v>550</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I223" s="5">
         <v>1506.56</v>
@@ -10900,7 +10891,7 @@
       <c r="N223" s="22"/>
       <c r="O223" s="22"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>554</v>
       </c>
@@ -10917,7 +10908,7 @@
         <v>553</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I224" s="5">
         <v>2475.71</v>
@@ -10931,7 +10922,7 @@
       <c r="N224" s="22"/>
       <c r="O224" s="22"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>556</v>
       </c>
@@ -10946,7 +10937,7 @@
         <v>555</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I225" s="5">
         <v>657.44</v>
@@ -10960,7 +10951,7 @@
       <c r="N225" s="22"/>
       <c r="O225" s="22"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>558</v>
       </c>
@@ -10975,7 +10966,7 @@
         <v>557</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I226" s="5">
         <v>627.69000000000005</v>
@@ -10989,7 +10980,7 @@
       <c r="N226" s="22"/>
       <c r="O226" s="22"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>560</v>
       </c>
@@ -10997,7 +10988,7 @@
         <v>559</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>560</v>
@@ -11006,7 +10997,7 @@
         <v>559</v>
       </c>
       <c r="F227" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I227" s="5">
         <v>2888.39</v>
@@ -11020,7 +11011,7 @@
       <c r="N227" s="22"/>
       <c r="O227" s="22"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>562</v>
       </c>
@@ -11035,7 +11026,7 @@
         <v>561</v>
       </c>
       <c r="F228" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I228" s="5">
         <v>1797.38</v>
@@ -11049,7 +11040,7 @@
       <c r="N228" s="22"/>
       <c r="O228" s="22"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>564</v>
       </c>
@@ -11064,7 +11055,7 @@
         <v>563</v>
       </c>
       <c r="F229" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I229" s="5">
         <v>2887.54</v>
@@ -11078,7 +11069,7 @@
       <c r="N229" s="22"/>
       <c r="O229" s="22"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>566</v>
       </c>
@@ -11093,7 +11084,7 @@
         <v>565</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I230" s="5">
         <v>2359.63</v>
@@ -11107,7 +11098,7 @@
       <c r="N230" s="22"/>
       <c r="O230" s="22"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>568</v>
       </c>
@@ -11124,7 +11115,7 @@
         <v>567</v>
       </c>
       <c r="F231" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I231" s="5">
         <v>488.84</v>
@@ -11138,7 +11129,7 @@
       <c r="N231" s="22"/>
       <c r="O231" s="22"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>570</v>
       </c>
@@ -11155,7 +11146,7 @@
         <v>569</v>
       </c>
       <c r="F232" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I232" s="5">
         <v>402.87</v>
@@ -11169,7 +11160,7 @@
       <c r="N232" s="22"/>
       <c r="O232" s="22"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>572</v>
       </c>
@@ -11186,7 +11177,7 @@
         <v>571</v>
       </c>
       <c r="F233" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I233" s="5">
         <v>1179.95</v>
@@ -11200,7 +11191,7 @@
       <c r="N233" s="22"/>
       <c r="O233" s="22"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>574</v>
       </c>
@@ -11217,7 +11208,7 @@
         <v>573</v>
       </c>
       <c r="F234" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I234" s="5">
         <v>3228.19</v>
@@ -11231,7 +11222,7 @@
       <c r="N234" s="22"/>
       <c r="O234" s="22"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>576</v>
       </c>
@@ -11248,7 +11239,7 @@
         <v>575</v>
       </c>
       <c r="F235" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I235" s="5">
         <v>465.27</v>
@@ -11262,7 +11253,7 @@
       <c r="N235" s="22"/>
       <c r="O235" s="22"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>578</v>
       </c>
@@ -11279,7 +11270,7 @@
         <v>577</v>
       </c>
       <c r="F236" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I236" s="5">
         <v>1490.52</v>
@@ -11293,7 +11284,7 @@
       <c r="N236" s="22"/>
       <c r="O236" s="22"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>580</v>
       </c>
@@ -11310,7 +11301,7 @@
         <v>579</v>
       </c>
       <c r="F237" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I237" s="5">
         <v>1052.46</v>
@@ -11324,7 +11315,7 @@
       <c r="N237" s="22"/>
       <c r="O237" s="22"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>582</v>
       </c>
@@ -11341,7 +11332,7 @@
         <v>581</v>
       </c>
       <c r="F238" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I238" s="5">
         <v>432.15</v>
@@ -11355,7 +11346,7 @@
       <c r="N238" s="22"/>
       <c r="O238" s="22"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>584</v>
       </c>
@@ -11372,7 +11363,7 @@
         <v>583</v>
       </c>
       <c r="F239" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I239" s="5">
         <v>775.71</v>
@@ -11386,7 +11377,7 @@
       <c r="N239" s="22"/>
       <c r="O239" s="22"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>586</v>
       </c>
@@ -11403,7 +11394,7 @@
         <v>585</v>
       </c>
       <c r="F240" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I240" s="5">
         <v>688.67</v>
@@ -11417,7 +11408,7 @@
       <c r="N240" s="22"/>
       <c r="O240" s="22"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>588</v>
       </c>
@@ -11434,7 +11425,7 @@
         <v>587</v>
       </c>
       <c r="F241" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I241" s="5">
         <v>1549.51</v>
@@ -11448,7 +11439,7 @@
       <c r="N241" s="22"/>
       <c r="O241" s="22"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>590</v>
       </c>
@@ -11465,7 +11456,7 @@
         <v>589</v>
       </c>
       <c r="F242" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I242" s="5">
         <v>1695.05</v>
@@ -11479,7 +11470,7 @@
       <c r="N242" s="22"/>
       <c r="O242" s="22"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>593</v>
       </c>
@@ -11496,7 +11487,7 @@
         <v>592</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="G243" s="1">
         <v>1</v>
@@ -11515,7 +11506,7 @@
       <c r="N243" s="22"/>
       <c r="O243" s="22"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>596</v>
       </c>
@@ -11532,7 +11523,7 @@
         <v>595</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I244" s="5">
         <v>638.82000000000005</v>
@@ -11546,7 +11537,7 @@
       <c r="N244" s="22"/>
       <c r="O244" s="22"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>599</v>
       </c>
@@ -11563,7 +11554,7 @@
         <v>598</v>
       </c>
       <c r="F245" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I245" s="5">
         <v>1037.75</v>
@@ -11585,7 +11576,7 @@
       </c>
       <c r="O245" s="22"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>602</v>
       </c>
@@ -11602,7 +11593,7 @@
         <v>601</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I246" s="5">
         <v>557.69000000000005</v>
@@ -11618,7 +11609,7 @@
       <c r="N246" s="22"/>
       <c r="O246" s="22"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>605</v>
       </c>
@@ -11635,7 +11626,7 @@
         <v>604</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I247" s="5">
         <v>708.26</v>
@@ -11649,7 +11640,7 @@
       <c r="N247" s="22"/>
       <c r="O247" s="22"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>607</v>
       </c>
@@ -11666,7 +11657,7 @@
         <v>606</v>
       </c>
       <c r="F248" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I248" s="5">
         <v>980.31</v>
@@ -11684,7 +11675,7 @@
       <c r="N248" s="22"/>
       <c r="O248" s="22"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>610</v>
       </c>
@@ -11701,7 +11692,7 @@
         <v>609</v>
       </c>
       <c r="F249" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I249" s="5">
         <v>1905.43</v>
@@ -11715,7 +11706,7 @@
       <c r="N249" s="22"/>
       <c r="O249" s="22"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>612</v>
       </c>
@@ -11732,7 +11723,7 @@
         <v>611</v>
       </c>
       <c r="F250" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I250" s="5">
         <v>1123.6500000000001</v>
@@ -11746,40 +11737,40 @@
       <c r="N250" s="22"/>
       <c r="O250" s="22"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C251" s="9" t="s">
         <v>678</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F251" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I251" s="5">
         <v>2067.63</v>
       </c>
       <c r="J251" s="26" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="K251" s="26" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="L251" s="22"/>
       <c r="M251" s="22"/>
       <c r="N251" s="22"/>
       <c r="O251" s="22"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>614</v>
       </c>
@@ -11796,7 +11787,7 @@
         <v>613</v>
       </c>
       <c r="F252" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I252" s="5">
         <v>378.33</v>
@@ -11814,7 +11805,7 @@
       <c r="N252" s="22"/>
       <c r="O252" s="22"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
         <v>617</v>
       </c>
@@ -11831,7 +11822,7 @@
         <v>616</v>
       </c>
       <c r="F253" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I253" s="5">
         <v>2751.23</v>
@@ -11845,7 +11836,7 @@
       <c r="N253" s="22"/>
       <c r="O253" s="22"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>619</v>
       </c>
@@ -11862,7 +11853,7 @@
         <v>618</v>
       </c>
       <c r="F254" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I254" s="5">
         <v>2660.56</v>
@@ -11882,7 +11873,7 @@
       <c r="N254" s="9"/>
       <c r="O254" s="22"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>622</v>
       </c>
@@ -11899,7 +11890,7 @@
         <v>621</v>
       </c>
       <c r="F255" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I255" s="5">
         <v>1020.82</v>
@@ -11913,7 +11904,7 @@
       <c r="N255" s="22"/>
       <c r="O255" s="22"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>624</v>
       </c>
@@ -11930,7 +11921,7 @@
         <v>623</v>
       </c>
       <c r="F256" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I256" s="5">
         <v>2781.15</v>
@@ -11944,7 +11935,7 @@
       <c r="N256" s="22"/>
       <c r="O256" s="22"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>626</v>
       </c>
@@ -11961,7 +11952,7 @@
         <v>625</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I257" s="5">
         <v>2058.17</v>
@@ -11975,7 +11966,7 @@
       <c r="N257" s="22"/>
       <c r="O257" s="22"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
         <v>629</v>
       </c>
@@ -11992,7 +11983,7 @@
         <v>628</v>
       </c>
       <c r="F258" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I258" s="5">
         <v>888.74</v>
@@ -12006,7 +11997,7 @@
       <c r="N258" s="22"/>
       <c r="O258" s="22"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>631</v>
       </c>
@@ -12014,7 +12005,7 @@
         <v>630</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>632</v>
@@ -12023,7 +12014,7 @@
         <v>630</v>
       </c>
       <c r="F259" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I259" s="5">
         <v>3241.17</v>
@@ -12038,27 +12029,27 @@
         <v>626</v>
       </c>
       <c r="M259" s="26" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="N259" s="22"/>
       <c r="O259" s="22"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C260" s="24"/>
       <c r="D260" s="9" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E260" s="9" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="F260" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I260" s="5">
         <v>1853.83</v>
@@ -12072,7 +12063,7 @@
       <c r="N260" s="22"/>
       <c r="O260" s="22"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>634</v>
       </c>
@@ -12087,7 +12078,7 @@
         <v>633</v>
       </c>
       <c r="F261" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I261" s="5">
         <v>553.52</v>
@@ -12101,7 +12092,7 @@
       <c r="N261" s="22"/>
       <c r="O261" s="22"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>637</v>
       </c>
@@ -12116,7 +12107,7 @@
         <v>636</v>
       </c>
       <c r="F262" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I262" s="5">
         <v>1736.54</v>
@@ -12130,7 +12121,7 @@
       <c r="N262" s="22"/>
       <c r="O262" s="22"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>640</v>
       </c>
@@ -12147,7 +12138,7 @@
         <v>639</v>
       </c>
       <c r="F263" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I263" s="5">
         <v>234.69</v>
@@ -12163,7 +12154,7 @@
       <c r="N263" s="22"/>
       <c r="O263" s="22"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>643</v>
       </c>
@@ -12180,7 +12171,7 @@
         <v>642</v>
       </c>
       <c r="F264" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I264" s="5">
         <v>473.48</v>
@@ -12194,7 +12185,7 @@
       <c r="N264" s="22"/>
       <c r="O264" s="22"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>645</v>
       </c>
@@ -12211,7 +12202,7 @@
         <v>644</v>
       </c>
       <c r="F265" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I265" s="5">
         <v>441.1</v>
@@ -12225,7 +12216,7 @@
       <c r="N265" s="22"/>
       <c r="O265" s="22"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>647</v>
       </c>
@@ -12242,7 +12233,7 @@
         <v>646</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I266" s="5">
         <v>302.41000000000003</v>
@@ -12258,7 +12249,7 @@
       <c r="N266" s="22"/>
       <c r="O266" s="22"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>650</v>
       </c>
@@ -12275,7 +12266,7 @@
         <v>649</v>
       </c>
       <c r="F267" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I267" s="5">
         <v>712.21</v>
@@ -12289,7 +12280,7 @@
       <c r="N267" s="22"/>
       <c r="O267" s="22"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>653</v>
       </c>
@@ -12306,7 +12297,7 @@
         <v>652</v>
       </c>
       <c r="F268" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I268" s="5">
         <v>209.74</v>
@@ -12320,7 +12311,7 @@
       <c r="N268" s="22"/>
       <c r="O268" s="22"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>656</v>
       </c>
@@ -12337,7 +12328,7 @@
         <v>655</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I269" s="5">
         <v>422.19</v>
@@ -12351,7 +12342,7 @@
       <c r="N269" s="22"/>
       <c r="O269" s="22"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>659</v>
       </c>
@@ -12368,7 +12359,7 @@
         <v>658</v>
       </c>
       <c r="F270" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I270" s="5">
         <v>290.82</v>
@@ -12386,7 +12377,7 @@
       <c r="N270" s="22"/>
       <c r="O270" s="22"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>662</v>
       </c>
@@ -12403,7 +12394,7 @@
         <v>661</v>
       </c>
       <c r="F271" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I271" s="5">
         <v>550.15</v>
@@ -12417,7 +12408,7 @@
       <c r="N271" s="22"/>
       <c r="O271" s="22"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
         <v>665</v>
       </c>
@@ -12434,7 +12425,7 @@
         <v>664</v>
       </c>
       <c r="F272" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I272" s="5">
         <v>634.95000000000005</v>
@@ -12448,7 +12439,7 @@
       <c r="N272" s="22"/>
       <c r="O272" s="22"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
         <v>668</v>
       </c>
@@ -12465,7 +12456,7 @@
         <v>667</v>
       </c>
       <c r="F273" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I273" s="5">
         <v>457.02</v>
@@ -12479,7 +12470,7 @@
       <c r="N273" s="22"/>
       <c r="O273" s="22"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
         <v>671</v>
       </c>
@@ -12496,7 +12487,7 @@
         <v>670</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I274" s="5">
         <v>269.51</v>
@@ -12510,7 +12501,7 @@
       <c r="N274" s="22"/>
       <c r="O274" s="22"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>673</v>
       </c>
@@ -12527,7 +12518,7 @@
         <v>672</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I275" s="5">
         <v>588.22</v>
@@ -12541,7 +12532,7 @@
       <c r="N275" s="22"/>
       <c r="O275" s="22"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
         <v>676</v>
       </c>
@@ -12558,7 +12549,7 @@
         <v>675</v>
       </c>
       <c r="F276" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I276" s="5">
         <v>577.37</v>
@@ -12572,7 +12563,7 @@
       <c r="N276" s="22"/>
       <c r="O276" s="22"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
         <v>678</v>
       </c>
@@ -12580,7 +12571,7 @@
         <v>677</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>678</v>
@@ -12589,13 +12580,13 @@
         <v>677</v>
       </c>
       <c r="F277" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I277" s="5">
         <v>3743.5</v>
       </c>
       <c r="J277" s="26" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="K277" s="22"/>
       <c r="L277" s="22"/>
@@ -12603,7 +12594,7 @@
       <c r="N277" s="22"/>
       <c r="O277" s="22"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>680</v>
       </c>
@@ -12620,7 +12611,7 @@
         <v>679</v>
       </c>
       <c r="F278" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I278" s="5">
         <v>321.70999999999998</v>
@@ -12634,7 +12625,7 @@
       <c r="N278" s="22"/>
       <c r="O278" s="22"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>683</v>
       </c>
@@ -12651,7 +12642,7 @@
         <v>682</v>
       </c>
       <c r="F279" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I279" s="5">
         <v>397.89</v>
@@ -12665,7 +12656,7 @@
       <c r="N279" s="22"/>
       <c r="O279" s="22"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
         <v>685</v>
       </c>
@@ -12682,7 +12673,7 @@
         <v>684</v>
       </c>
       <c r="F280" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I280" s="5">
         <v>410.08</v>
@@ -12696,7 +12687,7 @@
       <c r="N280" s="22"/>
       <c r="O280" s="22"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>688</v>
       </c>
@@ -12713,7 +12704,7 @@
         <v>687</v>
       </c>
       <c r="F281" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I281" s="5">
         <v>462.86</v>
@@ -12727,7 +12718,7 @@
       <c r="N281" s="22"/>
       <c r="O281" s="22"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
         <v>691</v>
       </c>
@@ -12744,7 +12735,7 @@
         <v>690</v>
       </c>
       <c r="F282" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I282" s="5">
         <v>60.15</v>
@@ -12758,7 +12749,7 @@
       <c r="N282" s="22"/>
       <c r="O282" s="22"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>694</v>
       </c>
@@ -12775,7 +12766,7 @@
         <v>693</v>
       </c>
       <c r="F283" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I283" s="5">
         <v>422.7</v>
@@ -12789,7 +12780,7 @@
       <c r="N283" s="22"/>
       <c r="O283" s="22"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>697</v>
       </c>
@@ -12806,7 +12797,7 @@
         <v>696</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I284" s="5">
         <v>357.33</v>
@@ -12820,7 +12811,7 @@
       <c r="N284" s="22"/>
       <c r="O284" s="22"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
         <v>700</v>
       </c>
@@ -12837,7 +12828,7 @@
         <v>699</v>
       </c>
       <c r="F285" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I285" s="5">
         <v>572</v>
@@ -12851,7 +12842,7 @@
       <c r="N285" s="22"/>
       <c r="O285" s="22"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
         <v>703</v>
       </c>
@@ -12868,7 +12859,7 @@
         <v>702</v>
       </c>
       <c r="F286" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I286" s="5">
         <v>116.19</v>
@@ -12884,7 +12875,7 @@
       <c r="N286" s="22"/>
       <c r="O286" s="22"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>706</v>
       </c>
@@ -12901,7 +12892,7 @@
         <v>705</v>
       </c>
       <c r="F287" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I287" s="5">
         <v>196.58</v>
@@ -12915,7 +12906,7 @@
       <c r="N287" s="22"/>
       <c r="O287" s="22"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
         <v>709</v>
       </c>
@@ -12930,7 +12921,7 @@
         <v>708</v>
       </c>
       <c r="F288" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I288" s="5">
         <v>737.18</v>
@@ -12944,7 +12935,7 @@
       <c r="N288" s="22"/>
       <c r="O288" s="22"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>711</v>
       </c>
@@ -12961,7 +12952,7 @@
         <v>710</v>
       </c>
       <c r="F289" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I289" s="5">
         <v>281.77999999999997</v>
@@ -12975,7 +12966,7 @@
       <c r="N289" s="22"/>
       <c r="O289" s="22"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
         <v>714</v>
       </c>
@@ -13006,7 +12997,7 @@
       <c r="N290" s="22"/>
       <c r="O290" s="22"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
         <v>718</v>
       </c>
@@ -13020,7 +13011,7 @@
         <v>718</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="F291" s="9" t="s">
         <v>143</v>
@@ -13037,7 +13028,7 @@
       <c r="N291" s="22"/>
       <c r="O291" s="22"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
         <v>720</v>
       </c>
@@ -13051,7 +13042,7 @@
         <v>720</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="F292" s="9" t="s">
         <v>143</v>
@@ -13068,7 +13059,7 @@
       <c r="N292" s="22"/>
       <c r="O292" s="22"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
         <v>722</v>
       </c>
@@ -13101,7 +13092,7 @@
       <c r="N293" s="22"/>
       <c r="O293" s="22"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
         <v>726</v>
       </c>
@@ -13115,7 +13106,7 @@
         <v>726</v>
       </c>
       <c r="E294" s="9" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F294" s="9" t="s">
         <v>143</v>
@@ -13132,7 +13123,7 @@
       <c r="N294" s="22"/>
       <c r="O294" s="22"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
         <v>728</v>
       </c>
@@ -13146,7 +13137,7 @@
         <v>728</v>
       </c>
       <c r="E295" s="9" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F295" s="9" t="s">
         <v>143</v>
@@ -13163,7 +13154,7 @@
       <c r="N295" s="22"/>
       <c r="O295" s="22"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
         <v>730</v>
       </c>
@@ -13196,7 +13187,7 @@
       <c r="N296" s="22"/>
       <c r="O296" s="22"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
         <v>733</v>
       </c>
@@ -13227,7 +13218,7 @@
       <c r="N297" s="22"/>
       <c r="O297" s="22"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
         <v>735</v>
       </c>
@@ -13258,7 +13249,7 @@
       <c r="N298" s="22"/>
       <c r="O298" s="22"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
         <v>737</v>
       </c>
@@ -13291,7 +13282,7 @@
       <c r="N299" s="22"/>
       <c r="O299" s="22"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
         <v>739</v>
       </c>
@@ -13322,7 +13313,7 @@
       <c r="N300" s="22"/>
       <c r="O300" s="22"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>741</v>
       </c>
@@ -13355,7 +13346,7 @@
       <c r="N301" s="22"/>
       <c r="O301" s="22"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
         <v>743</v>
       </c>
@@ -13386,7 +13377,7 @@
       <c r="N302" s="22"/>
       <c r="O302" s="22"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
         <v>745</v>
       </c>
@@ -13417,7 +13408,7 @@
       <c r="N303" s="22"/>
       <c r="O303" s="22"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
         <v>731</v>
       </c>
@@ -13448,12 +13439,12 @@
       <c r="N304" s="22"/>
       <c r="O304" s="22"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
         <v>747</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C305" s="9" t="s">
         <v>749</v>
@@ -13462,7 +13453,7 @@
         <v>747</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="F305" s="9" t="s">
         <v>143</v>
@@ -13479,12 +13470,12 @@
       <c r="N305" s="22"/>
       <c r="O305" s="22"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
         <v>748</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C306" s="9" t="s">
         <v>747</v>
@@ -13493,7 +13484,7 @@
         <v>748</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="F306" s="9" t="s">
         <v>143</v>
@@ -13510,12 +13501,12 @@
       <c r="N306" s="22"/>
       <c r="O306" s="22"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>749</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="C307" s="9" t="s">
         <v>377</v>
@@ -13524,7 +13515,7 @@
         <v>749</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F307" s="9" t="s">
         <v>143</v>
@@ -13541,7 +13532,7 @@
       <c r="N307" s="22"/>
       <c r="O307" s="22"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
         <v>751</v>
       </c>
@@ -13558,10 +13549,10 @@
         <v>750</v>
       </c>
       <c r="F308" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="I308" s="5">
         <v>417.39</v>
@@ -13575,7 +13566,7 @@
       <c r="N308" s="22"/>
       <c r="O308" s="22"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
         <v>753</v>
       </c>
@@ -13592,10 +13583,10 @@
         <v>752</v>
       </c>
       <c r="F309" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="I309" s="5">
         <v>1563.18</v>
@@ -13609,7 +13600,7 @@
       <c r="N309" s="22"/>
       <c r="O309" s="22"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>755</v>
       </c>
@@ -13626,10 +13617,10 @@
         <v>754</v>
       </c>
       <c r="F310" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="I310" s="5">
         <v>545.77</v>
@@ -13643,7 +13634,7 @@
       <c r="N310" s="22"/>
       <c r="O310" s="22"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>757</v>
       </c>
@@ -13660,10 +13651,10 @@
         <v>756</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I311" s="5">
         <v>874</v>
@@ -13679,7 +13670,7 @@
       <c r="N311" s="22"/>
       <c r="O311" s="22"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>759</v>
       </c>
@@ -13696,10 +13687,10 @@
         <v>758</v>
       </c>
       <c r="F312" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="I312" s="5">
         <v>596.1</v>
@@ -13713,7 +13704,7 @@
       <c r="N312" s="22"/>
       <c r="O312" s="22"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
         <v>761</v>
       </c>
@@ -13730,10 +13721,10 @@
         <v>760</v>
       </c>
       <c r="F313" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="H313" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="H313" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="I313" s="5">
         <v>193.8</v>
@@ -13747,25 +13738,25 @@
       <c r="N313" s="22"/>
       <c r="O313" s="22"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>762</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C314" s="24"/>
       <c r="D314" s="9" t="s">
         <v>762</v>
       </c>
       <c r="E314" s="9" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="F314" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="I314" s="5">
         <v>6220.41</v>
@@ -13781,7 +13772,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
         <v>764</v>
       </c>
@@ -13796,10 +13787,10 @@
         <v>763</v>
       </c>
       <c r="F315" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="I315" s="5">
         <v>1341.26</v>
@@ -13813,7 +13804,7 @@
       <c r="N315" s="22"/>
       <c r="O315" s="22"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
         <v>766</v>
       </c>
@@ -13830,10 +13821,10 @@
         <v>765</v>
       </c>
       <c r="F316" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="I316" s="5">
         <v>275.08</v>
@@ -13847,7 +13838,7 @@
       <c r="N316" s="22"/>
       <c r="O316" s="22"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" s="9" t="s">
         <v>768</v>
       </c>
@@ -13864,10 +13855,10 @@
         <v>767</v>
       </c>
       <c r="F317" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="I317" s="5">
         <v>266.14</v>
@@ -13881,7 +13872,7 @@
       <c r="N317" s="22"/>
       <c r="O317" s="22"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
         <v>770</v>
       </c>
@@ -13898,10 +13889,10 @@
         <v>769</v>
       </c>
       <c r="F318" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="I318" s="5">
         <v>2497.9299999999998</v>
@@ -13919,7 +13910,7 @@
       <c r="N318" s="22"/>
       <c r="O318" s="22"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
         <v>772</v>
       </c>
@@ -13936,10 +13927,10 @@
         <v>771</v>
       </c>
       <c r="F319" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="I319" s="5">
         <v>136.18</v>
@@ -13953,7 +13944,7 @@
       <c r="N319" s="22"/>
       <c r="O319" s="22"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
         <v>774</v>
       </c>
@@ -13970,10 +13961,10 @@
         <v>773</v>
       </c>
       <c r="F320" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="I320" s="5">
         <v>472.22</v>
@@ -13987,7 +13978,7 @@
       <c r="N320" s="22"/>
       <c r="O320" s="22"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
         <v>776</v>
       </c>
@@ -14004,10 +13995,10 @@
         <v>775</v>
       </c>
       <c r="F321" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="I321" s="5">
         <v>104.78</v>
@@ -14021,7 +14012,7 @@
       <c r="N321" s="22"/>
       <c r="O321" s="22"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>778</v>
       </c>
@@ -14038,10 +14029,10 @@
         <v>777</v>
       </c>
       <c r="F322" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="I322" s="5">
         <v>309.73</v>
@@ -14059,7 +14050,7 @@
       <c r="N322" s="22"/>
       <c r="O322" s="22"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
         <v>780</v>
       </c>
@@ -14076,10 +14067,10 @@
         <v>779</v>
       </c>
       <c r="F323" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="I323" s="5">
         <v>105.77</v>
@@ -14093,7 +14084,7 @@
       <c r="N323" s="22"/>
       <c r="O323" s="22"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
         <v>782</v>
       </c>
@@ -14110,10 +14101,10 @@
         <v>781</v>
       </c>
       <c r="F324" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="I324" s="5">
         <v>623.62</v>
@@ -14127,7 +14118,7 @@
       <c r="N324" s="22"/>
       <c r="O324" s="22"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
         <v>784</v>
       </c>
@@ -14144,10 +14135,10 @@
         <v>783</v>
       </c>
       <c r="F325" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="I325" s="5">
         <v>300.57</v>
@@ -14161,7 +14152,7 @@
       <c r="N325" s="22"/>
       <c r="O325" s="22"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
         <v>786</v>
       </c>
@@ -14178,10 +14169,10 @@
         <v>785</v>
       </c>
       <c r="F326" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="I326" s="5">
         <v>395.94</v>
@@ -14195,7 +14186,7 @@
       <c r="N326" s="22"/>
       <c r="O326" s="22"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
         <v>788</v>
       </c>
@@ -14212,10 +14203,10 @@
         <v>787</v>
       </c>
       <c r="F327" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="I327" s="5">
         <v>286.38</v>
@@ -14231,7 +14222,7 @@
       <c r="N327" s="22"/>
       <c r="O327" s="22"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
         <v>790</v>
       </c>
@@ -14248,10 +14239,10 @@
         <v>789</v>
       </c>
       <c r="F328" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="I328" s="5">
         <v>275.63</v>
@@ -14267,7 +14258,7 @@
       <c r="N328" s="22"/>
       <c r="O328" s="22"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
         <v>792</v>
       </c>
@@ -14284,10 +14275,10 @@
         <v>791</v>
       </c>
       <c r="F329" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="I329" s="5">
         <v>649.29</v>
@@ -14301,7 +14292,7 @@
       <c r="N329" s="22"/>
       <c r="O329" s="22"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
         <v>794</v>
       </c>
@@ -14316,10 +14307,10 @@
         <v>793</v>
       </c>
       <c r="F330" s="9" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="I330" s="5">
         <v>928.14</v>
@@ -14339,24 +14330,24 @@
       <c r="N330" s="22"/>
       <c r="O330" s="22"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" s="16" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="F331" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I331" s="5">
         <v>676.61</v>
@@ -14370,24 +14361,24 @@
       <c r="N331" s="9"/>
       <c r="O331" s="9"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" s="16" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="D332" s="16" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="E332" s="9" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="F332" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I332" s="5">
         <v>847.2</v>
@@ -14401,24 +14392,24 @@
       <c r="N332" s="9"/>
       <c r="O332" s="9"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" s="16" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C333" s="9" t="s">
         <v>631</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="F333" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="I333" s="5">
         <v>1332.05</v>
@@ -14449,16 +14440,16 @@
       <selection activeCell="A330" sqref="A330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -14481,13 +14472,13 @@
         <v>802</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -14519,7 +14510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -14551,7 +14542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -14583,7 +14574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -14615,7 +14606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -14647,7 +14638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -14679,7 +14670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -14711,7 +14702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -14743,7 +14734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -14775,7 +14766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -14807,7 +14798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -14839,7 +14830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -14871,7 +14862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -14903,7 +14894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -14935,7 +14926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -14967,7 +14958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -14999,7 +14990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -15031,7 +15022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -15063,7 +15054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -15095,7 +15086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -15127,7 +15118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -15159,7 +15150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -15191,7 +15182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -15223,7 +15214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -15255,7 +15246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -15287,10 +15278,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -15322,7 +15313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -15354,7 +15345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -15386,7 +15377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -15418,7 +15409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -15450,7 +15441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -15482,7 +15473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -15514,7 +15505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
@@ -15546,7 +15537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -15578,7 +15569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -15610,7 +15601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -15642,7 +15633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
@@ -15674,7 +15665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -15706,7 +15697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -15738,7 +15729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
@@ -15770,7 +15761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -15802,7 +15793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -15834,7 +15825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
@@ -15866,7 +15857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -15898,7 +15889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -15930,7 +15921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>89</v>
       </c>
@@ -15962,7 +15953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
@@ -15994,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -16026,7 +16017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>95</v>
       </c>
@@ -16058,7 +16049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
@@ -16090,7 +16081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
@@ -16122,7 +16113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
@@ -16154,7 +16145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>101</v>
       </c>
@@ -16186,7 +16177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>103</v>
       </c>
@@ -16218,7 +16209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>105</v>
       </c>
@@ -16250,7 +16241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>106</v>
       </c>
@@ -16282,7 +16273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
@@ -16314,7 +16305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>110</v>
       </c>
@@ -16346,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>112</v>
       </c>
@@ -16378,7 +16369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>113</v>
       </c>
@@ -16410,7 +16401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>116</v>
       </c>
@@ -16442,7 +16433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>119</v>
       </c>
@@ -16474,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -16506,7 +16497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>121</v>
       </c>
@@ -16538,7 +16529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>123</v>
       </c>
@@ -16570,9 +16561,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>807</v>
@@ -16602,7 +16593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>125</v>
       </c>
@@ -16634,7 +16625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>126</v>
       </c>
@@ -16666,9 +16657,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>807</v>
@@ -16698,10 +16689,10 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>127</v>
       </c>
@@ -16733,7 +16724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>128</v>
       </c>
@@ -16765,7 +16756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
@@ -16797,10 +16788,10 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
@@ -16832,7 +16823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>132</v>
       </c>
@@ -16864,7 +16855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>134</v>
       </c>
@@ -16896,7 +16887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>135</v>
       </c>
@@ -16928,7 +16919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>137</v>
       </c>
@@ -16960,7 +16951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>138</v>
       </c>
@@ -16992,7 +16983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>140</v>
       </c>
@@ -17024,7 +17015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>145</v>
       </c>
@@ -17056,7 +17047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>147</v>
       </c>
@@ -17088,7 +17079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>149</v>
       </c>
@@ -17120,7 +17111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>153</v>
       </c>
@@ -17152,7 +17143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>155</v>
       </c>
@@ -17184,7 +17175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>159</v>
       </c>
@@ -17216,7 +17207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
@@ -17248,7 +17239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>163</v>
       </c>
@@ -17280,7 +17271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>167</v>
       </c>
@@ -17312,7 +17303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>170</v>
       </c>
@@ -17344,7 +17335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>173</v>
       </c>
@@ -17376,7 +17367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>176</v>
       </c>
@@ -17408,7 +17399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>179</v>
       </c>
@@ -17440,7 +17431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>182</v>
       </c>
@@ -17472,7 +17463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>185</v>
       </c>
@@ -17504,7 +17495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>188</v>
       </c>
@@ -17536,7 +17527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>191</v>
       </c>
@@ -17568,7 +17559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -17600,7 +17591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>197</v>
       </c>
@@ -17632,7 +17623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>200</v>
       </c>
@@ -17664,7 +17655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>203</v>
       </c>
@@ -17696,7 +17687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>206</v>
       </c>
@@ -17728,7 +17719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>209</v>
       </c>
@@ -17760,7 +17751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>212</v>
       </c>
@@ -17792,7 +17783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>215</v>
       </c>
@@ -17824,7 +17815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>218</v>
       </c>
@@ -17856,7 +17847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>221</v>
       </c>
@@ -17888,7 +17879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>224</v>
       </c>
@@ -17920,7 +17911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>227</v>
       </c>
@@ -17952,7 +17943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>230</v>
       </c>
@@ -17984,7 +17975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>233</v>
       </c>
@@ -18016,7 +18007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>236</v>
       </c>
@@ -18048,7 +18039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>239</v>
       </c>
@@ -18080,7 +18071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>242</v>
       </c>
@@ -18112,7 +18103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>245</v>
       </c>
@@ -18144,7 +18135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>248</v>
       </c>
@@ -18176,7 +18167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>251</v>
       </c>
@@ -18208,7 +18199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>254</v>
       </c>
@@ -18240,7 +18231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>257</v>
       </c>
@@ -18272,7 +18263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>260</v>
       </c>
@@ -18304,7 +18295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>263</v>
       </c>
@@ -18336,7 +18327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>266</v>
       </c>
@@ -18368,7 +18359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>269</v>
       </c>
@@ -18400,7 +18391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>272</v>
       </c>
@@ -18432,7 +18423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>275</v>
       </c>
@@ -18464,7 +18455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>278</v>
       </c>
@@ -18496,7 +18487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>281</v>
       </c>
@@ -18528,7 +18519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>284</v>
       </c>
@@ -18560,7 +18551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>287</v>
       </c>
@@ -18592,7 +18583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>290</v>
       </c>
@@ -18624,7 +18615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>293</v>
       </c>
@@ -18656,7 +18647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>296</v>
       </c>
@@ -18688,7 +18679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>299</v>
       </c>
@@ -18720,10 +18711,10 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>302</v>
       </c>
@@ -18755,7 +18746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>305</v>
       </c>
@@ -18787,7 +18778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>308</v>
       </c>
@@ -18819,7 +18810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>311</v>
       </c>
@@ -18851,7 +18842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>314</v>
       </c>
@@ -18883,10 +18874,10 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>317</v>
       </c>
@@ -18918,10 +18909,10 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>320</v>
       </c>
@@ -18953,7 +18944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>323</v>
       </c>
@@ -18985,7 +18976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>326</v>
       </c>
@@ -19017,7 +19008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>329</v>
       </c>
@@ -19049,7 +19040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>332</v>
       </c>
@@ -19081,7 +19072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>335</v>
       </c>
@@ -19113,7 +19104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>338</v>
       </c>
@@ -19145,7 +19136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>341</v>
       </c>
@@ -19177,10 +19168,10 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>344</v>
       </c>
@@ -19212,7 +19203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>347</v>
       </c>
@@ -19244,7 +19235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>350</v>
       </c>
@@ -19276,7 +19267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>353</v>
       </c>
@@ -19308,7 +19299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>356</v>
       </c>
@@ -19340,7 +19331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>359</v>
       </c>
@@ -19372,7 +19363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>362</v>
       </c>
@@ -19404,7 +19395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>365</v>
       </c>
@@ -19436,7 +19427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>368</v>
       </c>
@@ -19468,7 +19459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>371</v>
       </c>
@@ -19500,7 +19491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>374</v>
       </c>
@@ -19532,10 +19523,10 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>377</v>
       </c>
@@ -19567,7 +19558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>380</v>
       </c>
@@ -19599,7 +19590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>383</v>
       </c>
@@ -19631,7 +19622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>386</v>
       </c>
@@ -19663,7 +19654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>389</v>
       </c>
@@ -19695,7 +19686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>392</v>
       </c>
@@ -19727,7 +19718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>395</v>
       </c>
@@ -19759,10 +19750,10 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>398</v>
       </c>
@@ -19794,7 +19785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>401</v>
       </c>
@@ -19826,7 +19817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>404</v>
       </c>
@@ -19858,7 +19849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>407</v>
       </c>
@@ -19890,7 +19881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>410</v>
       </c>
@@ -19922,7 +19913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>413</v>
       </c>
@@ -19954,7 +19945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>416</v>
       </c>
@@ -19986,7 +19977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>419</v>
       </c>
@@ -20018,7 +20009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>422</v>
       </c>
@@ -20050,7 +20041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>425</v>
       </c>
@@ -20082,7 +20073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>428</v>
       </c>
@@ -20114,7 +20105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>431</v>
       </c>
@@ -20146,7 +20137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>434</v>
       </c>
@@ -20178,7 +20169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>437</v>
       </c>
@@ -20210,10 +20201,10 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>440</v>
       </c>
@@ -20245,10 +20236,10 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>443</v>
       </c>
@@ -20280,7 +20271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>446</v>
       </c>
@@ -20312,10 +20303,10 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>449</v>
       </c>
@@ -20347,7 +20338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>452</v>
       </c>
@@ -20379,7 +20370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>455</v>
       </c>
@@ -20411,7 +20402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>458</v>
       </c>
@@ -20443,7 +20434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>461</v>
       </c>
@@ -20475,7 +20466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>464</v>
       </c>
@@ -20507,7 +20498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>467</v>
       </c>
@@ -20539,7 +20530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>470</v>
       </c>
@@ -20571,7 +20562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>473</v>
       </c>
@@ -20603,7 +20594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>476</v>
       </c>
@@ -20635,7 +20626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>479</v>
       </c>
@@ -20667,7 +20658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>481</v>
       </c>
@@ -20699,12 +20690,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C195">
         <f>COUNTIF(Connectivity!J:J,A195)</f>
@@ -20731,12 +20722,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C196">
         <f>COUNTIF(Connectivity!J:J,A196)</f>
@@ -20763,15 +20754,15 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C197">
         <f>COUNTIF(Connectivity!J:J,A197)</f>
@@ -20798,12 +20789,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C198">
         <f>COUNTIF(Connectivity!J:J,A198)</f>
@@ -20830,12 +20821,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C199">
         <f>COUNTIF(Connectivity!J:J,A199)</f>
@@ -20862,12 +20853,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C200">
         <f>COUNTIF(Connectivity!J:J,A200)</f>
@@ -20894,12 +20885,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>496</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C201">
         <f>COUNTIF(Connectivity!J:J,A201)</f>
@@ -20926,12 +20917,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C202">
         <f>COUNTIF(Connectivity!J:J,A202)</f>
@@ -20958,15 +20949,15 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C203">
         <f>COUNTIF(Connectivity!J:J,A203)</f>
@@ -20993,15 +20984,15 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>504</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C204">
         <f>COUNTIF(Connectivity!J:J,A204)</f>
@@ -21028,12 +21019,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C205">
         <f>COUNTIF(Connectivity!J:J,A205)</f>
@@ -21060,12 +21051,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C206">
         <f>COUNTIF(Connectivity!J:J,A206)</f>
@@ -21092,12 +21083,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C207">
         <f>COUNTIF(Connectivity!J:J,A207)</f>
@@ -21124,12 +21115,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>515</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C208">
         <f>COUNTIF(Connectivity!J:J,A208)</f>
@@ -21156,12 +21147,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>518</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C209">
         <f>COUNTIF(Connectivity!J:J,A209)</f>
@@ -21188,12 +21179,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>520</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C210">
         <f>COUNTIF(Connectivity!J:J,A210)</f>
@@ -21220,12 +21211,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>523</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C211">
         <f>COUNTIF(Connectivity!J:J,A211)</f>
@@ -21252,12 +21243,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>525</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C212">
         <f>COUNTIF(Connectivity!J:J,A212)</f>
@@ -21284,12 +21275,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>528</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C213">
         <f>COUNTIF(Connectivity!J:J,A213)</f>
@@ -21316,12 +21307,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>531</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C214">
         <f>COUNTIF(Connectivity!J:J,A214)</f>
@@ -21348,12 +21339,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>534</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C215">
         <f>COUNTIF(Connectivity!J:J,A215)</f>
@@ -21380,12 +21371,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C216">
         <f>COUNTIF(Connectivity!J:J,A216)</f>
@@ -21412,12 +21403,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>539</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C217">
         <f>COUNTIF(Connectivity!J:J,A217)</f>
@@ -21444,15 +21435,15 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>541</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C218">
         <f>COUNTIF(Connectivity!J:J,A218)</f>
@@ -21479,12 +21470,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>544</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C219">
         <f>COUNTIF(Connectivity!J:J,A219)</f>
@@ -21511,12 +21502,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C220">
         <f>COUNTIF(Connectivity!J:J,A220)</f>
@@ -21543,15 +21534,15 @@
         <v>0</v>
       </c>
       <c r="I220" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C221">
         <f>COUNTIF(Connectivity!J:J,A221)</f>
@@ -21578,12 +21569,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>548</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C222">
         <f>COUNTIF(Connectivity!J:J,A222)</f>
@@ -21610,15 +21601,15 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>551</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C223">
         <f>COUNTIF(Connectivity!J:J,A223)</f>
@@ -21645,12 +21636,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C224">
         <f>COUNTIF(Connectivity!J:J,A224)</f>
@@ -21677,12 +21668,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>556</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C225">
         <f>COUNTIF(Connectivity!J:J,A225)</f>
@@ -21709,15 +21700,15 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>558</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C226">
         <f>COUNTIF(Connectivity!J:J,A226)</f>
@@ -21744,15 +21735,15 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C227">
         <f>COUNTIF(Connectivity!J:J,A227)</f>
@@ -21779,12 +21770,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>562</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C228">
         <f>COUNTIF(Connectivity!J:J,A228)</f>
@@ -21811,15 +21802,15 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>564</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C229">
         <f>COUNTIF(Connectivity!J:J,A229)</f>
@@ -21846,15 +21837,15 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C230">
         <f>COUNTIF(Connectivity!J:J,A230)</f>
@@ -21881,15 +21872,15 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>568</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C231">
         <f>COUNTIF(Connectivity!J:J,A231)</f>
@@ -21916,12 +21907,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C232">
         <f>COUNTIF(Connectivity!J:J,A232)</f>
@@ -21948,12 +21939,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C233">
         <f>COUNTIF(Connectivity!J:J,A233)</f>
@@ -21980,12 +21971,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C234">
         <f>COUNTIF(Connectivity!J:J,A234)</f>
@@ -22012,12 +22003,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C235">
         <f>COUNTIF(Connectivity!J:J,A235)</f>
@@ -22044,12 +22035,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C236">
         <f>COUNTIF(Connectivity!J:J,A236)</f>
@@ -22076,12 +22067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>580</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C237">
         <f>COUNTIF(Connectivity!J:J,A237)</f>
@@ -22108,12 +22099,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>582</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C238">
         <f>COUNTIF(Connectivity!J:J,A238)</f>
@@ -22140,12 +22131,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>584</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C239">
         <f>COUNTIF(Connectivity!J:J,A239)</f>
@@ -22172,12 +22163,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>586</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C240">
         <f>COUNTIF(Connectivity!J:J,A240)</f>
@@ -22204,12 +22195,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>588</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C241">
         <f>COUNTIF(Connectivity!J:J,A241)</f>
@@ -22236,12 +22227,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>590</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C242">
         <f>COUNTIF(Connectivity!J:J,A242)</f>
@@ -22268,12 +22259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>593</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C243">
         <f>COUNTIF(Connectivity!J:J,A243)</f>
@@ -22300,12 +22291,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>596</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C244">
         <f>COUNTIF(Connectivity!J:J,A244)</f>
@@ -22332,12 +22323,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>599</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C245">
         <f>COUNTIF(Connectivity!J:J,A245)</f>
@@ -22364,12 +22355,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>602</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C246">
         <f>COUNTIF(Connectivity!J:J,A246)</f>
@@ -22396,12 +22387,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>605</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C247">
         <f>COUNTIF(Connectivity!J:J,A247)</f>
@@ -22428,12 +22419,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>607</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C248">
         <f>COUNTIF(Connectivity!J:J,A248)</f>
@@ -22460,12 +22451,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>610</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C249">
         <f>COUNTIF(Connectivity!J:J,A249)</f>
@@ -22492,12 +22483,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>612</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C250">
         <f>COUNTIF(Connectivity!J:J,A250)</f>
@@ -22524,12 +22515,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C251">
         <f>COUNTIF(Connectivity!J:J,A251)</f>
@@ -22556,12 +22547,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C252">
         <f>COUNTIF(Connectivity!J:J,A252)</f>
@@ -22588,12 +22579,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>617</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C253">
         <f>COUNTIF(Connectivity!J:J,A253)</f>
@@ -22620,12 +22611,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>619</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C254">
         <f>COUNTIF(Connectivity!J:J,A254)</f>
@@ -22652,12 +22643,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>622</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C255">
         <f>COUNTIF(Connectivity!J:J,A255)</f>
@@ -22684,12 +22675,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>624</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C256">
         <f>COUNTIF(Connectivity!J:J,A256)</f>
@@ -22716,12 +22707,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C257">
         <f>COUNTIF(Connectivity!J:J,A257)</f>
@@ -22748,12 +22739,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>629</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C258">
         <f>COUNTIF(Connectivity!J:J,A258)</f>
@@ -22780,12 +22771,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>631</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C259">
         <f>COUNTIF(Connectivity!J:J,A259)</f>
@@ -22812,12 +22803,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C260">
         <f>COUNTIF(Connectivity!J:J,A260)</f>
@@ -22844,15 +22835,15 @@
         <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>634</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C261">
         <f>COUNTIF(Connectivity!J:J,A261)</f>
@@ -22879,15 +22870,15 @@
         <v>0</v>
       </c>
       <c r="I261" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>637</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C262">
         <f>COUNTIF(Connectivity!J:J,A262)</f>
@@ -22914,15 +22905,15 @@
         <v>0</v>
       </c>
       <c r="I262" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>640</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C263">
         <f>COUNTIF(Connectivity!J:J,A263)</f>
@@ -22949,12 +22940,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>643</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C264">
         <f>COUNTIF(Connectivity!J:J,A264)</f>
@@ -22981,12 +22972,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>645</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C265">
         <f>COUNTIF(Connectivity!J:J,A265)</f>
@@ -23013,12 +23004,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>647</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C266">
         <f>COUNTIF(Connectivity!J:J,A266)</f>
@@ -23045,12 +23036,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>650</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C267">
         <f>COUNTIF(Connectivity!J:J,A267)</f>
@@ -23077,12 +23068,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>653</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C268">
         <f>COUNTIF(Connectivity!J:J,A268)</f>
@@ -23109,12 +23100,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>656</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C269">
         <f>COUNTIF(Connectivity!J:J,A269)</f>
@@ -23141,12 +23132,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>659</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C270">
         <f>COUNTIF(Connectivity!J:J,A270)</f>
@@ -23173,12 +23164,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>662</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C271">
         <f>COUNTIF(Connectivity!J:J,A271)</f>
@@ -23205,12 +23196,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>665</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C272">
         <f>COUNTIF(Connectivity!J:J,A272)</f>
@@ -23237,12 +23228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>668</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C273">
         <f>COUNTIF(Connectivity!J:J,A273)</f>
@@ -23269,12 +23260,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>671</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C274">
         <f>COUNTIF(Connectivity!J:J,A274)</f>
@@ -23301,12 +23292,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>673</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C275">
         <f>COUNTIF(Connectivity!J:J,A275)</f>
@@ -23333,12 +23324,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C276">
         <f>COUNTIF(Connectivity!J:J,A276)</f>
@@ -23365,12 +23356,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>678</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C277">
         <f>COUNTIF(Connectivity!J:J,A277)</f>
@@ -23397,12 +23388,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>680</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C278">
         <f>COUNTIF(Connectivity!J:J,A278)</f>
@@ -23429,12 +23420,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>683</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C279">
         <f>COUNTIF(Connectivity!J:J,A279)</f>
@@ -23461,12 +23452,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>685</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C280">
         <f>COUNTIF(Connectivity!J:J,A280)</f>
@@ -23493,12 +23484,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>688</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C281">
         <f>COUNTIF(Connectivity!J:J,A281)</f>
@@ -23525,12 +23516,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>691</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C282">
         <f>COUNTIF(Connectivity!J:J,A282)</f>
@@ -23557,12 +23548,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>694</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C283">
         <f>COUNTIF(Connectivity!J:J,A283)</f>
@@ -23589,12 +23580,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>697</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C284">
         <f>COUNTIF(Connectivity!J:J,A284)</f>
@@ -23621,12 +23612,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>700</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C285">
         <f>COUNTIF(Connectivity!J:J,A285)</f>
@@ -23653,12 +23644,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>703</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C286">
         <f>COUNTIF(Connectivity!J:J,A286)</f>
@@ -23685,12 +23676,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>706</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C287">
         <f>COUNTIF(Connectivity!J:J,A287)</f>
@@ -23717,12 +23708,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>709</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C288">
         <f>COUNTIF(Connectivity!J:J,A288)</f>
@@ -23749,15 +23740,15 @@
         <v>0</v>
       </c>
       <c r="I288" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>711</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C289">
         <f>COUNTIF(Connectivity!J:J,A289)</f>
@@ -23784,7 +23775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>714</v>
       </c>
@@ -23816,7 +23807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>718</v>
       </c>
@@ -23848,7 +23839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>720</v>
       </c>
@@ -23880,7 +23871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>722</v>
       </c>
@@ -23912,7 +23903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>726</v>
       </c>
@@ -23944,7 +23935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>728</v>
       </c>
@@ -23976,7 +23967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>730</v>
       </c>
@@ -24008,7 +23999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>733</v>
       </c>
@@ -24040,7 +24031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>735</v>
       </c>
@@ -24072,7 +24063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>737</v>
       </c>
@@ -24104,7 +24095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>739</v>
       </c>
@@ -24136,7 +24127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>741</v>
       </c>
@@ -24168,7 +24159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>743</v>
       </c>
@@ -24200,7 +24191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>745</v>
       </c>
@@ -24232,7 +24223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>731</v>
       </c>
@@ -24264,7 +24255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>747</v>
       </c>
@@ -24296,7 +24287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>748</v>
       </c>
@@ -24328,7 +24319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>749</v>
       </c>
@@ -24360,12 +24351,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>751</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C308">
         <f>COUNTIF(Connectivity!J:J,A308)</f>
@@ -24392,12 +24383,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>753</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C309">
         <f>COUNTIF(Connectivity!J:J,A309)</f>
@@ -24424,12 +24415,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>755</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C310">
         <f>COUNTIF(Connectivity!J:J,A310)</f>
@@ -24456,12 +24447,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>757</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C311">
         <f>COUNTIF(Connectivity!J:J,A311)</f>
@@ -24488,12 +24479,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>759</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C312">
         <f>COUNTIF(Connectivity!J:J,A312)</f>
@@ -24520,12 +24511,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>761</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C313">
         <f>COUNTIF(Connectivity!J:J,A313)</f>
@@ -24552,12 +24543,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>762</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C314">
         <f>COUNTIF(Connectivity!J:J,A314)</f>
@@ -24584,15 +24575,15 @@
         <v>0</v>
       </c>
       <c r="I314" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>764</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C315">
         <f>COUNTIF(Connectivity!J:J,A315)</f>
@@ -24619,15 +24610,15 @@
         <v>0</v>
       </c>
       <c r="I315" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>766</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C316">
         <f>COUNTIF(Connectivity!J:J,A316)</f>
@@ -24654,12 +24645,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>768</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C317">
         <f>COUNTIF(Connectivity!J:J,A317)</f>
@@ -24686,12 +24677,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>770</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C318">
         <f>COUNTIF(Connectivity!J:J,A318)</f>
@@ -24718,12 +24709,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>772</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C319">
         <f>COUNTIF(Connectivity!J:J,A319)</f>
@@ -24750,12 +24741,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>774</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C320">
         <f>COUNTIF(Connectivity!J:J,A320)</f>
@@ -24782,12 +24773,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>776</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C321">
         <f>COUNTIF(Connectivity!J:J,A321)</f>
@@ -24814,12 +24805,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>778</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C322">
         <f>COUNTIF(Connectivity!J:J,A322)</f>
@@ -24846,12 +24837,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>780</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C323">
         <f>COUNTIF(Connectivity!J:J,A323)</f>
@@ -24878,12 +24869,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>782</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C324">
         <f>COUNTIF(Connectivity!J:J,A324)</f>
@@ -24910,12 +24901,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>784</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C325">
         <f>COUNTIF(Connectivity!J:J,A325)</f>
@@ -24942,12 +24933,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>786</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C326">
         <f>COUNTIF(Connectivity!J:J,A326)</f>
@@ -24974,12 +24965,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>788</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C327">
         <f>COUNTIF(Connectivity!J:J,A327)</f>
@@ -25006,12 +24997,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>790</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C328">
         <f>COUNTIF(Connectivity!J:J,A328)</f>
@@ -25038,12 +25029,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>792</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C329">
         <f>COUNTIF(Connectivity!J:J,A329)</f>
@@ -25070,12 +25061,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>794</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C330">
         <f>COUNTIF(Connectivity!J:J,A330)</f>
@@ -25102,15 +25093,15 @@
         <v>0</v>
       </c>
       <c r="I330" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>3286</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C331">
         <f>COUNTIF(Connectivity!J:J,A331)</f>
@@ -25137,12 +25128,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>3297</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C332">
         <f>COUNTIF(Connectivity!J:J,A332)</f>
@@ -25169,12 +25160,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>3278</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C333">
         <f>COUNTIF(Connectivity!J:J,A333)</f>
@@ -25207,18 +25198,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25384,6 +25375,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B0B07C7-ADD3-410A-B016-FCC1F0EF11A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B617B74-2453-443F-98A7-C9CF7CD369BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -25395,14 +25394,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="9c400254-fef3-429d-b788-c507e6fe6ac9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B0B07C7-ADD3-410A-B016-FCC1F0EF11A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
